--- a/biology/Zoologie/Dryaderces/Dryaderces.xlsx
+++ b/biology/Zoologie/Dryaderces/Dryaderces.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dryaderces est un genre d'amphibiens de la famille des Hylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dryaderces est un genre d'amphibiens de la famille des Hylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les deux espèces se rencontrent en Bolivie et au Brésil[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les deux espèces se rencontrent en Bolivie et au Brésil. 
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Amphibian Species of the World                      (7 juin 2017)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Amphibian Species of the World                      (7 juin 2017) :
 Dryaderces inframaculata (Boulenger, 1882)
 Dryaderces pearsoni (Gaige, 1929)</t>
         </is>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Jungfer, Faivovich, Padial, Castroviejo-Fisher, Lyra, Berneck, Iglesias, Kok, MacCulloch, Rodrigues, Verdade, Torres-Gastello, Chaparro, Valdujo, Reichle, Moravec, Gvoždík, Gagliardi-Urrutia, Ernst, De la Riva, Means, Lima, Señaris, Wheeler &amp; Haddad, 2013 : Systematics of spiny-backed treefrogs (Hylidae: Osteocephalus): an Amazonian puzzle. Zoologica Scripta, vol. 42, p. 351–380.</t>
         </is>
